--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1095262.190914833</v>
+        <v>1093374.609398431</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>108.8640957525906</v>
       </c>
       <c r="Y2" t="n">
-        <v>312.8512621916908</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>162.3364906735232</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>190.2713935802968</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>207.2096032800586</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>185.5237017088178</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>223.1498336210773</v>
+        <v>4.25260122792275</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>92.39306372366568</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>28.13446210676988</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>40.28139784613033</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>229.5889480231531</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274037</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>147.7826743645848</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>143.3158222056514</v>
       </c>
     </row>
     <row r="14">
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>139.1537278750036</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>33.3514698018584</v>
       </c>
     </row>
     <row r="17">
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>215.0546805228896</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>33.35146980185863</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274074</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532057</v>
       </c>
       <c r="X22" t="n">
-        <v>122.6519788371598</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>122.6519788371599</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002171</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2719,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>37.03135913814404</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>211.2541671901478</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2950,25 +2950,25 @@
         <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965521</v>
+        <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801203</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>99.03327386561222</v>
+        <v>42.20569823125478</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571483</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523564</v>
+        <v>54.76109577523572</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952709</v>
@@ -3013,10 +3013,10 @@
         <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463045</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>959.5129866402885</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>2035.589960916693</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.124202655613</v>
+        <v>1254.779875245437</v>
       </c>
       <c r="Y2" t="n">
-        <v>1346.11282670441</v>
+        <v>864.6405432696254</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4516,22 +4516,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694736</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y4" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1359.546482223453</v>
+        <v>1185.96319079745</v>
       </c>
       <c r="C5" t="n">
-        <v>990.5839652830418</v>
+        <v>1185.96319079745</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762914</v>
+        <v>827.6974921906992</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>827.6974921906992</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>416.7115874010917</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2509.751412524467</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>2509.751412524467</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X5" t="n">
-        <v>2136.285654263387</v>
+        <v>1576.102522773261</v>
       </c>
       <c r="Y5" t="n">
-        <v>1746.146322287575</v>
+        <v>1185.96319079745</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>502.7251118619119</v>
+        <v>496.5252400791544</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5356891811371</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1391.97203927339</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C8" t="n">
-        <v>1391.97203927339</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4808,13 +4808,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249201</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X8" t="n">
-        <v>1782.111371249201</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y8" t="n">
-        <v>1391.97203927339</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="9">
@@ -4890,16 +4890,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>263.631062734689</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>263.631062734689</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>263.631062734689</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>263.631062734689</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>263.631062734689</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>94.63126247302137</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>94.63126247302137</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036446</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782191</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782191</v>
+        <v>513.840561024597</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782191</v>
+        <v>513.840561024597</v>
       </c>
       <c r="V10" t="n">
-        <v>484.4236418782191</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>484.4236418782191</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>484.4236418782191</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>263.631062734689</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5030,10 +5030,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5121,16 +5121,16 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>410.8745301331628</v>
+        <v>326.249275617007</v>
       </c>
       <c r="L12" t="n">
-        <v>1024.771599890051</v>
+        <v>940.1463453738957</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>584.7466045204288</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150548</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X13" t="n">
-        <v>954.8146123150548</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y13" t="n">
-        <v>734.0220331715246</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5355,16 +5355,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>177.1795914149474</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>326.2492756170072</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>940.1463453738959</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
         <v>2051.878056918008</v>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
         <v>97.21709146028584</v>
@@ -5434,7 +5434,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688073</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V16" t="n">
-        <v>755.1831334811259</v>
+        <v>420.3226148324569</v>
       </c>
       <c r="W16" t="n">
-        <v>465.7659634441653</v>
+        <v>130.9054447954964</v>
       </c>
       <c r="X16" t="n">
-        <v>237.776412546148</v>
+        <v>130.9054447954964</v>
       </c>
       <c r="Y16" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,10 +5531,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5592,19 +5592,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>2032.925401907737</v>
       </c>
       <c r="O18" t="n">
         <v>2331.418122136705</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5674,13 +5674,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1281.689320534781</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>1281.689320534781</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>1281.689320534781</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W19" t="n">
-        <v>1281.689320534781</v>
+        <v>130.9054447954966</v>
       </c>
       <c r="X19" t="n">
-        <v>1281.689320534781</v>
+        <v>130.9054447954966</v>
       </c>
       <c r="Y19" t="n">
-        <v>1060.896741391251</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5732,31 +5732,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5917,7 +5917,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5935,22 +5935,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609663</v>
+        <v>786.082206476519</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550795</v>
+        <v>531.3977182706321</v>
       </c>
       <c r="W22" t="n">
-        <v>441.9005583181188</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,34 +5972,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6008,7 +6008,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="D25" t="n">
         <v>97.21709146028584</v>
@@ -6145,25 +6145,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688075</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557902</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609663</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550795</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181189</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>441.9005583181189</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>221.1079791745888</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,43 +6212,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>745.6707680030233</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>282.5355983135315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>282.5355983135315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>282.5355983135315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>134.6225047311384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609658</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>731.317728355079</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>731.317728355079</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X28" t="n">
-        <v>503.3281774570617</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>282.5355983135315</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6440,34 +6440,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6488,22 +6488,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6546,22 +6546,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,52 +6595,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542194</v>
+        <v>439.5324299542182</v>
       </c>
       <c r="C31" t="n">
-        <v>439.5324299542194</v>
+        <v>326.357112307682</v>
       </c>
       <c r="D31" t="n">
-        <v>345.1766558232548</v>
+        <v>232.0013381767171</v>
       </c>
       <c r="E31" t="n">
-        <v>253.0244275222324</v>
+        <v>139.8491098756947</v>
       </c>
       <c r="F31" t="n">
-        <v>253.0244275222324</v>
+        <v>139.8491098756947</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
         <v>1880.811824899271</v>
@@ -6655,16 +6655,16 @@
         <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.680428981894</v>
+        <v>902.6804289818937</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652475</v>
+        <v>730.4517433652471</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030882</v>
+        <v>565.4200295030871</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982964</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6874,16 +6874,16 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6917,7 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,46 +6926,46 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636247</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
         <v>478.0475988506726</v>
@@ -7084,25 +7084,25 @@
         <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982974</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7172,7 +7172,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
@@ -7251,22 +7251,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7397,49 +7397,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2050.644882483981</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
@@ -7588,10 +7588,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>223.155231313709</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>634.0455001582217</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>124.3400780863228</v>
+        <v>38.86002301949873</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,10 +8778,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -9003,19 +9003,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>38.86002301949895</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9240,22 +9240,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165117</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>19.14409596997086</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,16 +9489,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>306.1147370139961</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9887,7 +9887,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>213.2603911806626</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>202.5230052237941</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776759</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>213.260391180663</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>283.6093329825497</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>85.30006332127833</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.04930581735246</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,13 +23464,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>75.26883114644335</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.09309322362427</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>185.2331835502364</v>
       </c>
     </row>
     <row r="17">
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>6.492880535499637</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>185.2331835502362</v>
       </c>
     </row>
     <row r="20">
@@ -24175,7 +24175,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>82.39383318338534</v>
       </c>
       <c r="X22" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24367,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>25.96349418105248</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24412,7 +24412,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338612</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,10 +24607,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>108.3896888847872</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24649,7 +24649,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>75.26883114644323</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943741</v>
+        <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
-        <v>12.25703796920822</v>
+        <v>69.08461360356574</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897898</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571492</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>8.881784197001252e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>979408.0102536818</v>
+        <v>979408.0102536819</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>979408.0102536818</v>
+        <v>979408.0102536819</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>979408.010253682</v>
+        <v>979408.0102536819</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>979408.0102536819</v>
+        <v>979408.010253682</v>
       </c>
     </row>
     <row r="10">
@@ -26314,13 +26314,13 @@
         <v>431046.9291787487</v>
       </c>
       <c r="C2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="D2" t="n">
         <v>431046.9291787487</v>
       </c>
       <c r="E2" t="n">
-        <v>410580.5127245943</v>
+        <v>410580.5127245942</v>
       </c>
       <c r="F2" t="n">
         <v>410580.5127245943</v>
@@ -26329,13 +26329,13 @@
         <v>410580.5127245943</v>
       </c>
       <c r="H2" t="n">
-        <v>410580.5127245942</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="I2" t="n">
         <v>410580.5127245943</v>
       </c>
       <c r="J2" t="n">
-        <v>410580.5127245944</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="K2" t="n">
         <v>427163.2442125332</v>
@@ -26347,10 +26347,10 @@
         <v>431046.9291787486</v>
       </c>
       <c r="N2" t="n">
+        <v>431046.9291787487</v>
+      </c>
+      <c r="O2" t="n">
         <v>431046.9291787486</v>
-      </c>
-      <c r="O2" t="n">
-        <v>431046.9291787487</v>
       </c>
       <c r="P2" t="n">
         <v>431046.9291787487</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,22 +26390,22 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284572</v>
+        <v>44162.60530284565</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.9068008668</v>
+        <v>10342.90680086688</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284573</v>
+        <v>44162.60530284564</v>
       </c>
     </row>
     <row r="4">
@@ -26424,7 +26424,7 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687072</v>
@@ -26433,7 +26433,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
@@ -26442,13 +26442,13 @@
         <v>22174.60758687072</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106727</v>
+        <v>40339.23010106725</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819125</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819125</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="N4" t="n">
         <v>44593.3948281912</v>
@@ -26488,7 +26488,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26497,19 +26497,19 @@
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-407412.8958857295</v>
+        <v>-407412.8958857296</v>
       </c>
       <c r="C6" t="n">
         <v>182554.9833288148</v>
       </c>
       <c r="D6" t="n">
-        <v>182554.9833288148</v>
+        <v>182554.9833288149</v>
       </c>
       <c r="E6" t="n">
-        <v>-228741.4572878891</v>
+        <v>-228838.9164138615</v>
       </c>
       <c r="F6" t="n">
-        <v>296418.5791890069</v>
+        <v>296321.1200630348</v>
       </c>
       <c r="G6" t="n">
-        <v>296418.579189007</v>
+        <v>296321.1200630348</v>
       </c>
       <c r="H6" t="n">
-        <v>296418.5791890068</v>
+        <v>296321.1200630348</v>
       </c>
       <c r="I6" t="n">
-        <v>296418.5791890069</v>
+        <v>296321.1200630348</v>
       </c>
       <c r="J6" t="n">
-        <v>119995.359996414</v>
+        <v>119897.9008704419</v>
       </c>
       <c r="K6" t="n">
-        <v>246033.2002783974</v>
+        <v>246014.7065404632</v>
       </c>
       <c r="L6" t="n">
-        <v>278395.5217296653</v>
+        <v>278395.5217296652</v>
       </c>
       <c r="M6" t="n">
         <v>153937.4132966948</v>
       </c>
       <c r="N6" t="n">
-        <v>288738.4285305319</v>
+        <v>288738.4285305321</v>
       </c>
       <c r="O6" t="n">
         <v>288738.4285305321</v>
       </c>
       <c r="P6" t="n">
-        <v>244575.8232276864</v>
+        <v>244575.8232276865</v>
       </c>
     </row>
   </sheetData>
@@ -26710,13 +26710,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964065</v>
@@ -26725,7 +26725,7 @@
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26756,10 +26756,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26768,13 +26768,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010835</v>
+        <v>12.9286335010836</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855705</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>260.8670049258785</v>
       </c>
       <c r="Y2" t="n">
-        <v>73.38667646436284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.49548950841407</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27588,22 +27588,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>28.31325977179802</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,10 +27625,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>206.5745667407363</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>142.2285567613171</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>63.3731647155137</v>
+        <v>282.2703971086682</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>290.3407779398149</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>326.5485795139131</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>94.68422394620789</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>22.54869530067495</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28336,10 +28336,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="32">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33655,40 +33655,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,10 +33728,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215733</v>
@@ -33740,7 +33740,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724845</v>
@@ -33749,10 +33749,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33764,7 +33764,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33828,7 +33828,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33840,10 +33840,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
         <v>0.08167695791351813</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>274.915516674262</v>
+        <v>189.435461607438</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
@@ -35498,10 +35498,10 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315247</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>80.77020197440561</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>301.507798211079</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315246</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36209,16 +36209,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>639.309310412009</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,19 +36595,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303341</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P26" t="n">
         <v>570.6060255109123</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>462.5180961366869</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412269</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
         <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043192</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>409.6164201553188</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560242</v>
+        <v>425.9753597058697</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092005</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37470,10 +37470,10 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.441731308613</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>420.3538061121876</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,10 +37710,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,19 +37780,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>490.7027479140744</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,10 +37947,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>127.210242276185</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38111,7 +38111,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
